--- a/supporting_information/Table T1.xlsx
+++ b/supporting_information/Table T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noob\Desktop\supporting_information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noob\Desktop\NETN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0BFDE-8952-41C2-A80C-545C585905A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102C2D6B-132B-4603-B431-A26F48343F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
-  <si>
-    <t>Table T1. Characterizing connectivity patterns on the circuit based on absorption and driftiness values of classes.</t>
-  </si>
-  <si>
-    <t>Summary of absorption and driftiness results</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Class 50</t>
   </si>
@@ -2276,6 +2270,45 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> from 37</t>
+    </r>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>Table T1. Characterizing connectivity patterns on the circuit based on absorption and driftiness values of classes.</t>
+  </si>
+  <si>
+    <t>Focus Class</t>
+  </si>
+  <si>
+    <t>Summary of Absorption and Driftiness Measurements</t>
+  </si>
+  <si>
+    <t>"Focus Class" is a hub class.</t>
+  </si>
+  <si>
+    <t>"Focus Class" is a dominant glutamatergic class.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Connectivity interpretation of all classes is based on the same set of absorption and driftiness measurements (Supporting Information File F1 (Tab:abs drift)) obtained from performing a series of random walks on the entire circuit.</t>
     </r>
   </si>
 </sst>
@@ -2283,7 +2316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2407,8 +2440,15 @@
       <name val="Source Serif Pro"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Source Serif Pro"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2460,13 +2500,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
   </fills>
@@ -2500,19 +2558,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2525,6 +2570,21 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2552,55 +2612,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2627,6 +2732,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDEBF7"/>
+      <color rgb="FFDDE8CB"/>
+      <color rgb="FFE9E0FC"/>
+      <color rgb="FFEEE7FD"/>
+      <color rgb="FFDDCEFA"/>
+      <color rgb="FFD0BCF8"/>
+      <color rgb="FFF7BDBD"/>
+      <color rgb="FFFFB5B5"/>
+      <color rgb="FFE0E1F8"/>
+      <color rgb="FFD3D5F5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2935,405 +3054,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="182" style="12" customWidth="1"/>
+    <col min="2" max="2" width="77.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182" style="7" customWidth="1"/>
     <col min="4" max="1024" width="10.625" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="26.45" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" s="36" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" spans="1:3" ht="86.25" customHeight="1">
+      <c r="B7" s="37"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="14.25">
+      <c r="A8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="56.25">
+      <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="14.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="13" t="s">
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" ht="33">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="56.25">
-      <c r="A5" s="15" t="s">
+      <c r="B16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75">
+      <c r="A21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="90">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="93.75">
+      <c r="A25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="37.5">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="56.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" ht="35.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="75">
+      <c r="A33" s="18"/>
+      <c r="B33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" ht="37.5">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="37.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="33">
-      <c r="A9" s="9"/>
-      <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" s="8" t="s">
+      <c r="C35" s="33"/>
+    </row>
+    <row r="36" spans="1:3" ht="36" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="66">
+      <c r="A37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:3" ht="37.5">
+      <c r="A39" s="11"/>
+      <c r="B39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" ht="36">
+      <c r="A41" s="11"/>
+      <c r="B41" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="36" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.25">
+      <c r="A43" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="18">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75">
-      <c r="A16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="90">
-      <c r="A18" s="9"/>
-      <c r="B18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" ht="93.75">
-      <c r="A20" s="15" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="1:3" ht="36">
+      <c r="A45" s="11"/>
+      <c r="B45" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="1:3" ht="36">
+      <c r="A47" s="11"/>
+      <c r="B47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3" ht="36">
+      <c r="A49" s="11"/>
+      <c r="B49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="1:3" ht="36">
+      <c r="A51" s="11"/>
+      <c r="B51" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="23"/>
+    </row>
+    <row r="52" spans="1:3" ht="36" customHeight="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" ht="36">
+      <c r="A53" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" ht="37.5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" ht="56.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14" t="s">
+      <c r="B53" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+    </row>
+    <row r="55" spans="1:3" ht="36">
+      <c r="A55" s="11"/>
+      <c r="B55" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" ht="35.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="14" t="s">
+      <c r="C55" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+    </row>
+    <row r="57" spans="1:3" ht="36">
+      <c r="A57" s="11"/>
+      <c r="B57" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" ht="75">
-      <c r="A28" s="9"/>
-      <c r="B28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" ht="36">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" ht="69">
-      <c r="A32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" ht="36">
-      <c r="A34" s="9"/>
-      <c r="B34" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="C57" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" ht="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.25">
-      <c r="A38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:3" ht="36">
-      <c r="A40" s="9"/>
-      <c r="B40" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" ht="36">
-      <c r="A42" s="9"/>
-      <c r="B42" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:3" ht="36">
-      <c r="A44" s="9"/>
-      <c r="B44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" ht="36">
-      <c r="A46" s="9"/>
-      <c r="B46" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="36">
-      <c r="A48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:3" ht="36">
-      <c r="A50" s="9"/>
-      <c r="B50" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="36">
-      <c r="A52" s="9"/>
-      <c r="B52" s="14" t="s">
+    <row r="58" spans="1:3" ht="17.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+    </row>
+    <row r="59" spans="1:3" ht="36">
+      <c r="A59" s="13"/>
+      <c r="B59" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="1:3" ht="36">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="21"/>
-    </row>
-    <row r="55" spans="1:3" ht="17.25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:3" ht="17.25"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/supporting_information/Table T1.xlsx
+++ b/supporting_information/Table T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noob\Desktop\NETN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102C2D6B-132B-4603-B431-A26F48343F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E94633-3845-477B-9A31-A3B6CDC6274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3056,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/supporting_information/Table T1.xlsx
+++ b/supporting_information/Table T1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noob\Desktop\NETN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E94633-3845-477B-9A31-A3B6CDC6274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA6A3D-CABE-4E17-BD3C-FB138EFDF1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2279,18 +2279,50 @@
     <t>Table T1. Characterizing connectivity patterns on the circuit based on absorption and driftiness values of classes.</t>
   </si>
   <si>
-    <t>Focus Class</t>
-  </si>
-  <si>
-    <t>Summary of Absorption and Driftiness Measurements</t>
-  </si>
-  <si>
-    <t>"Focus Class" is a hub class.</t>
-  </si>
-  <si>
-    <t>"Focus Class" is a dominant glutamatergic class.</t>
-  </si>
-  <si>
+    <t>"Class of Interest" is a hub class.</t>
+  </si>
+  <si>
+    <t>"Class of Interest" is a dominant glutamatergic class.</t>
+  </si>
+  <si>
+    <t>Class of Interest</t>
+  </si>
+  <si>
+    <r>
+      <t>Summary Results for Absorption and Driftiness Measurements</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>†</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Serif Pro"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -2299,16 +2331,7 @@
         <rFont val="Source Serif Pro"/>
         <family val="1"/>
       </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Source Serif Pro"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  Connectivity interpretation of all classes is based on the same set of absorption and driftiness measurements (Supporting Information File F1 (Tab:abs drift)) obtained from performing a series of random walks on the entire circuit.</t>
+      <t>Based on the absorption and driftiness measurements provided in Supporting Information File F1 (Tab:abs drift), obtained from performing a series of random walks on the entire circuit.</t>
     </r>
   </si>
 </sst>
@@ -2316,7 +2339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2447,6 +2470,14 @@
       <name val="Source Serif Pro"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Source Serif Pro"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2612,7 +2643,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2699,13 +2730,7 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3057,7 +3082,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3085,34 +3110,33 @@
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:3" s="36" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="37"/>
-    </row>
-    <row r="7" spans="1:3" ht="86.25" customHeight="1">
-      <c r="B7" s="37"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="72" customHeight="1">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="14.25">
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="22.5">
       <c r="A8" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>9</v>
@@ -3250,7 +3274,7 @@
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3" ht="37.5">
+    <row r="27" spans="1:3" ht="36">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
         <v>43</v>
@@ -3259,12 +3283,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="17.25">
       <c r="A28" s="15"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" ht="56.25">
+    <row r="29" spans="1:3" ht="54">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
         <v>39</v>
@@ -3273,7 +3297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="18"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3287,12 +3311,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="18"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" ht="75">
+    <row r="33" spans="1:3" ht="72">
       <c r="A33" s="18"/>
       <c r="B33" s="16" t="s">
         <v>47</v>
@@ -3301,12 +3325,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="18"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="1:3" ht="37.5">
+    <row r="35" spans="1:3" ht="36">
       <c r="A35" s="31"/>
       <c r="B35" s="32" t="s">
         <v>52</v>
@@ -3318,7 +3342,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="66">
+    <row r="37" spans="1:3" ht="69">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
@@ -3329,12 +3353,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="11"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
     </row>
-    <row r="39" spans="1:3" ht="37.5">
+    <row r="39" spans="1:3" ht="36">
       <c r="A39" s="11"/>
       <c r="B39" s="22" t="s">
         <v>24</v>

--- a/supporting_information/Table T1.xlsx
+++ b/supporting_information/Table T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noob\Desktop\NETN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEA6A3D-CABE-4E17-BD3C-FB138EFDF1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F0E83-CCB0-408E-B53B-A0ED2261EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2305,23 +2305,18 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Source Serif Pro"/>
         <family val="1"/>
       </rPr>
       <t>†</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Source Serif Pro"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2643,13 +2638,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2685,13 +2679,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2730,9 +2717,14 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3082,428 +3074,428 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="182" style="7" customWidth="1"/>
+    <col min="2" max="2" width="77.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182" style="6" customWidth="1"/>
     <col min="4" max="1024" width="10.625" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="9" style="1" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="26.45" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" s="34" customFormat="1" ht="24" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="72" customHeight="1">
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" ht="48" customHeight="1">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="22.5">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:3" s="37" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="56.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="37.5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="33">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="16.5">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="18">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="18.75">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="90">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="93.75">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="36">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="54">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="35.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="72">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" ht="36">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" ht="69">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:3" ht="36">
-      <c r="A39" s="11"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3" ht="36">
-      <c r="A41" s="11"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" ht="17.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="36">
-      <c r="A45" s="11"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47" spans="1:3" ht="36">
-      <c r="A47" s="11"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:3" ht="36">
-      <c r="A49" s="11"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:3" ht="36">
-      <c r="A51" s="11"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" ht="36">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" ht="36">
-      <c r="A55" s="11"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3" ht="36">
-      <c r="A57" s="11"/>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="1:3" ht="36">
-      <c r="A59" s="13"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:3" ht="17.25"/>
   </sheetData>
